--- a/progetto/results/randomMergeHeapPython/radixBase10.xlsx
+++ b/progetto/results/randomMergeHeapPython/radixBase10.xlsx
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -364,7 +364,7 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>0.004392862319946289</v>
+        <v>0.004404544830322266</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>1500</v>
       </c>
       <c r="B3">
-        <v>0.006623744964599609</v>
+        <v>0.006575345993041992</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>0.009006261825561523</v>
+        <v>0.008704185485839844</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>2500</v>
       </c>
       <c r="B5">
-        <v>0.0181431770324707</v>
+        <v>0.0115816593170166</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>3000</v>
       </c>
       <c r="B6">
-        <v>0.01359820365905762</v>
+        <v>0.02510261535644531</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>3500</v>
       </c>
       <c r="B7">
-        <v>0.01602840423583984</v>
+        <v>0.01809620857238769</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>4000</v>
       </c>
       <c r="B8">
-        <v>0.01832842826843262</v>
+        <v>0.01931071281433105</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>4500</v>
       </c>
       <c r="B9">
-        <v>0.02025961875915527</v>
+        <v>0.02115273475646973</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>5000</v>
       </c>
       <c r="B10">
-        <v>0.02335119247436524</v>
+        <v>0.02364516258239746</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>5500</v>
       </c>
       <c r="B11">
-        <v>0.02482366561889648</v>
+        <v>0.02525830268859864</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>6000</v>
       </c>
       <c r="B12">
-        <v>0.0273292064666748</v>
+        <v>0.03057432174682617</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>6500</v>
       </c>
       <c r="B13">
-        <v>0.0575551986694336</v>
+        <v>0.0294950008392334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>7000</v>
       </c>
       <c r="B14">
-        <v>0.03145909309387207</v>
+        <v>0.03404450416564941</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>7500</v>
       </c>
       <c r="B15">
-        <v>0.03348541259765625</v>
+        <v>0.03367519378662109</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>8000</v>
       </c>
       <c r="B16">
-        <v>0.03630733489990234</v>
+        <v>0.03903651237487793</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8500</v>
       </c>
       <c r="B17">
-        <v>0.0381004810333252</v>
+        <v>0.04272198677062988</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9000</v>
       </c>
       <c r="B18">
-        <v>0.04597568511962891</v>
+        <v>0.04222273826599121</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>9500</v>
       </c>
       <c r="B19">
-        <v>0.06146955490112305</v>
+        <v>0.04356813430786133</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>10000</v>
       </c>
       <c r="B20">
-        <v>0.06141543388366699</v>
+        <v>0.05604696273803711</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>11000</v>
       </c>
       <c r="B21">
-        <v>0.06943798065185547</v>
+        <v>0.06203436851501465</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>12000</v>
       </c>
       <c r="B22">
-        <v>0.07324576377868652</v>
+        <v>0.06862330436706543</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>13000</v>
       </c>
       <c r="B23">
-        <v>0.07614803314208984</v>
+        <v>0.07595205307006836</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>14000</v>
       </c>
       <c r="B24">
-        <v>0.08179712295532228</v>
+        <v>0.08036541938781737</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>15000</v>
       </c>
       <c r="B25">
-        <v>0.08567070960998535</v>
+        <v>0.08617877960205078</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>16000</v>
       </c>
       <c r="B26">
-        <v>0.0905916690826416</v>
+        <v>0.09052062034606934</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>17000</v>
       </c>
       <c r="B27">
-        <v>0.1045229434967041</v>
+        <v>0.0974407196044922</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>18000</v>
       </c>
       <c r="B28">
-        <v>0.1770522594451905</v>
+        <v>0.1022346019744873</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>19000</v>
       </c>
       <c r="B29">
-        <v>0.1265478134155273</v>
+        <v>0.110806941986084</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>20000</v>
       </c>
       <c r="B30">
-        <v>0.1178805828094483</v>
+        <v>0.1200377941131592</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>21000</v>
       </c>
       <c r="B31">
-        <v>0.1228053569793701</v>
+        <v>0.1227755546569824</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>22000</v>
       </c>
       <c r="B32">
-        <v>0.1327831745147705</v>
+        <v>0.1324341297149658</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>23000</v>
       </c>
       <c r="B33">
-        <v>0.1365451812744141</v>
+        <v>0.1343579292297363</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>24000</v>
       </c>
       <c r="B34">
-        <v>0.156074047088623</v>
+        <v>0.1414244174957275</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>25000</v>
       </c>
       <c r="B35">
-        <v>0.178682804107666</v>
+        <v>0.1462976932525635</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>26000</v>
       </c>
       <c r="B36">
-        <v>0.1639318466186523</v>
+        <v>0.1526272296905518</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>27000</v>
       </c>
       <c r="B37">
-        <v>0.1695351600646973</v>
+        <v>0.1594619750976562</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>28000</v>
       </c>
       <c r="B38">
-        <v>0.1809537410736084</v>
+        <v>0.1630997657775879</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>29000</v>
       </c>
       <c r="B39">
-        <v>0.3691411018371582</v>
+        <v>0.1691024303436279</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>30000</v>
       </c>
       <c r="B40">
-        <v>0.2219686508178711</v>
+        <v>0.1753895282745361</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>31000</v>
       </c>
       <c r="B41">
-        <v>0.1857521533966064</v>
+        <v>0.178886890411377</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>32000</v>
       </c>
       <c r="B42">
-        <v>0.1987879276275635</v>
+        <v>0.1858484745025635</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>33000</v>
       </c>
       <c r="B43">
-        <v>0.1954367160797119</v>
+        <v>0.1908235549926758</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>34000</v>
       </c>
       <c r="B44">
-        <v>0.2301867008209229</v>
+        <v>0.1954433917999268</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>35000</v>
       </c>
       <c r="B45">
-        <v>0.2136232852935791</v>
+        <v>0.2001154422760009</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>36000</v>
       </c>
       <c r="B46">
-        <v>0.2141988277435303</v>
+        <v>0.2081384658813477</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>37000</v>
       </c>
       <c r="B47">
-        <v>0.2205095291137696</v>
+        <v>0.2156507968902588</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>38000</v>
       </c>
       <c r="B48">
-        <v>0.2311339378356934</v>
+        <v>0.2208049297332764</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>39000</v>
       </c>
       <c r="B49">
-        <v>0.2321810722351074</v>
+        <v>0.2255368232727051</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>40000</v>
       </c>
       <c r="B50">
-        <v>0.2376356124877929</v>
+        <v>0.2311654090881348</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>41000</v>
       </c>
       <c r="B51">
-        <v>0.242795467376709</v>
+        <v>0.2353029251098633</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42000</v>
       </c>
       <c r="B52">
-        <v>0.2481832504272461</v>
+        <v>0.2411935329437256</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>43000</v>
       </c>
       <c r="B53">
-        <v>0.2558820247650146</v>
+        <v>0.2525310516357422</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>44000</v>
       </c>
       <c r="B54">
-        <v>0.2609236240386963</v>
+        <v>0.2567741870880127</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45000</v>
       </c>
       <c r="B55">
-        <v>0.2646844387054443</v>
+        <v>0.2619731426239014</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>46000</v>
       </c>
       <c r="B56">
-        <v>0.2733664512634277</v>
+        <v>0.2687911987304688</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>47000</v>
       </c>
       <c r="B57">
-        <v>0.2883543968200684</v>
+        <v>0.2733678817749023</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>48000</v>
       </c>
       <c r="B58">
-        <v>0.285728931427002</v>
+        <v>0.2781789302825928</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>49000</v>
       </c>
       <c r="B59">
-        <v>0.289980411529541</v>
+        <v>0.2860066890716553</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>50000</v>
       </c>
       <c r="B60">
-        <v>0.2934203147888184</v>
+        <v>0.2865729331970215</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>55000</v>
       </c>
       <c r="B61">
-        <v>0.3272662162780762</v>
+        <v>0.3179707527160645</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>60000</v>
       </c>
       <c r="B62">
-        <v>0.3605377674102783</v>
+        <v>0.3514623641967773</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>65000</v>
       </c>
       <c r="B63">
-        <v>0.4030828475952149</v>
+        <v>0.3791549205780029</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>70000</v>
       </c>
       <c r="B64">
-        <v>0.4259839057922363</v>
+        <v>0.4146182537078857</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>75000</v>
       </c>
       <c r="B65">
-        <v>0.4571316242218018</v>
+        <v>0.4442222118377686</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>80000</v>
       </c>
       <c r="B66">
-        <v>0.4937348365783691</v>
+        <v>0.4831161499023438</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>85000</v>
       </c>
       <c r="B67">
-        <v>0.5249087810516357</v>
+        <v>0.5057506561279297</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>90000</v>
       </c>
       <c r="B68">
-        <v>0.5468485355377197</v>
+        <v>0.5389339923858643</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,15 +900,7 @@
         <v>95000</v>
       </c>
       <c r="B69">
-        <v>0.5913228988647461</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>100000</v>
-      </c>
-      <c r="B70">
-        <v>0.7342228889465332</v>
+        <v>0.5734202861785889</v>
       </c>
     </row>
   </sheetData>
